--- a/F_dataset/DUD-E/AKT1/AKT1_prepare/AKT1_active.xlsx
+++ b/F_dataset/DUD-E/AKT1/AKT1_prepare/AKT1_active.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T343"/>
+  <dimension ref="A1:T294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17529,4122 +17529,6 @@
       <c r="S294" t="inlineStr"/>
       <c r="T294" t="inlineStr"/>
     </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>CHEMBL3679631</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
-        <v>1</v>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>N=C(c1ccccc1)n1c(=N)ccc2nc(-c3ccc(C4(N)CC(F)(F)C4)cc3)c(-c3ccccc3)cc21</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>N=C(c1ccccc1)n1c(=N)ccc2nc(-c3ccc(C4(N)CC(F)(F)C4)cc3)c(-c3ccccc3)cc21</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G295" t="n">
-        <v>505.57</v>
-      </c>
-      <c r="H295" t="n">
-        <v>3</v>
-      </c>
-      <c r="I295" t="n">
-        <v>2</v>
-      </c>
-      <c r="J295" t="n">
-        <v>4</v>
-      </c>
-      <c r="K295" t="n">
-        <v>6</v>
-      </c>
-      <c r="L295" t="n">
-        <v>5</v>
-      </c>
-      <c r="M295" t="n">
-        <v>91.54000000000001</v>
-      </c>
-      <c r="N295" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O295" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P295" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q295" t="n">
-        <v>10</v>
-      </c>
-      <c r="R295" t="inlineStr">
-        <is>
-          <t>CHEMBL3705350</t>
-        </is>
-      </c>
-      <c r="S295" t="inlineStr">
-        <is>
-          <t>Kinase Assay: Activated Akt isoforms and pleckstrin homology domain deletion constructs were assayed utilizing a GSK-derived biotinylated peptide substrate. The extend of peptide was determined by Homogeneous Time Resolved Fluorescence (HTRF) using a lanthanide chelate (Lance)-coupled monoclonal antibody specific for the phosphopeptide in combination with a streptavidin-linked allophycocyanin (SA-APC) fluorophore which will bind to the biotin moiety on the peptide.</t>
-        </is>
-      </c>
-      <c r="T295" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>CHEMBL409880</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>1</v>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>Cc1c[nH]c2ncnc(Nc3ccccc3-c3nnc[nH]3)c12</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>Cc1c[nH]c2ncnc(Nc3ccccc3-c3nnc[nH]3)c12</t>
-        </is>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G296" t="n">
-        <v>291.32</v>
-      </c>
-      <c r="H296" t="n">
-        <v>3</v>
-      </c>
-      <c r="I296" t="n">
-        <v>5</v>
-      </c>
-      <c r="J296" t="n">
-        <v>3</v>
-      </c>
-      <c r="K296" t="n">
-        <v>4</v>
-      </c>
-      <c r="L296" t="n">
-        <v>4</v>
-      </c>
-      <c r="M296" t="n">
-        <v>95.17</v>
-      </c>
-      <c r="N296" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O296" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P296" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q296" t="n">
-        <v>425</v>
-      </c>
-      <c r="R296" t="inlineStr">
-        <is>
-          <t>CHEMBL936668</t>
-        </is>
-      </c>
-      <c r="S296" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1</t>
-        </is>
-      </c>
-      <c r="T296" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>CHEMBL259834</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>1</v>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>Cc1nnc(-c2cc(Cl)ccc2Nc2ncnc3[nH]ccc23)[nH]1</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>Cc1nnc(-c2cc(Cl)ccc2Nc2ncnc3[nH]ccc23)[nH]1</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G297" t="n">
-        <v>325.76</v>
-      </c>
-      <c r="H297" t="n">
-        <v>3</v>
-      </c>
-      <c r="I297" t="n">
-        <v>5</v>
-      </c>
-      <c r="J297" t="n">
-        <v>3</v>
-      </c>
-      <c r="K297" t="n">
-        <v>4</v>
-      </c>
-      <c r="L297" t="n">
-        <v>4</v>
-      </c>
-      <c r="M297" t="n">
-        <v>95.17</v>
-      </c>
-      <c r="N297" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O297" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P297" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q297" t="n">
-        <v>171</v>
-      </c>
-      <c r="R297" t="inlineStr">
-        <is>
-          <t>CHEMBL936668</t>
-        </is>
-      </c>
-      <c r="S297" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1</t>
-        </is>
-      </c>
-      <c r="T297" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>CHEMBL1170447</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>1</v>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>N#Cc1c[nH]c2ncnc(N3CC[C@](N)(CNC(=O)c4ccc(F)cc4F)C3)c12</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>N#Cc1c[nH]c2ncnc(N3CC[C@](N)(CNC(=O)c4ccc(F)cc4F)C3)c12</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G298" t="n">
-        <v>397.39</v>
-      </c>
-      <c r="H298" t="n">
-        <v>3</v>
-      </c>
-      <c r="I298" t="n">
-        <v>6</v>
-      </c>
-      <c r="J298" t="n">
-        <v>4</v>
-      </c>
-      <c r="K298" t="n">
-        <v>4</v>
-      </c>
-      <c r="L298" t="n">
-        <v>3</v>
-      </c>
-      <c r="M298" t="n">
-        <v>123.72</v>
-      </c>
-      <c r="N298" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O298" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P298" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q298" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="R298" t="inlineStr">
-        <is>
-          <t>CHEMBL1176552</t>
-        </is>
-      </c>
-      <c r="S298" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 after 90 mins by IMAP assay</t>
-        </is>
-      </c>
-      <c r="T298" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>CHEMBL3899097</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>1</v>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>Cc1cc(-c2cn(CC3CNC3)c(C3CCC(c4ncnc(N)c4C(C)C)CC3)n2)ccc1F</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>Cc1cc(-c2cn(CC3CNC3)c(C3CCC(c4ncnc(N)c4C(C)C)CC3)n2)ccc1F</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G299" t="n">
-        <v>462.62</v>
-      </c>
-      <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>5</v>
-      </c>
-      <c r="J299" t="n">
-        <v>6</v>
-      </c>
-      <c r="K299" t="n">
-        <v>5</v>
-      </c>
-      <c r="L299" t="n">
-        <v>3</v>
-      </c>
-      <c r="M299" t="n">
-        <v>81.65000000000001</v>
-      </c>
-      <c r="N299" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O299" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P299" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q299" t="n">
-        <v>16</v>
-      </c>
-      <c r="R299" t="inlineStr">
-        <is>
-          <t>CHEMBL3887297</t>
-        </is>
-      </c>
-      <c r="S299" t="inlineStr">
-        <is>
-          <t>AKT Enzyme Assay: A TTP Mosquito liquid handling instrument is used to place 125 nl of the appropriate concentration of inhibitor in 100% DMSO (for a dose response curve calculation) into each well of a 384-well plate. To this reaction components are added to a final volume of 12.5 .mu.l: 0.1 ng/.mu.l His-AKT (Full Length), (Invitrogen, Part # P2999, Lot #641228C). 160 uM ATP (Fluka, 02055) 1 mM DTT (Sigma, D0632) 1 mM MgCl2 (Sigma, M1028) 1 .mu.M substrate peptide (sequence FITC-AHA-GRPRTSSFAEG-NH2), synthesized by Tufts Peptide Synthesis service. 100 mM HEPES pH 7.5 (Calbiochem, 391338)0.015% Brij-35 (Sigma, B4184)The reaction is incubated for 90 min at 25 C, and then stopped by the addition of 70 .mu.l of Stop buffer (100 mM HEPES pH 7.5, 0.015% Brij-35, 10 mM EDTA (Sigma, E7889)).The plate is read on a Caliper LC 3000 in an Off-Chip mobility shift assay format, using the following parameters for a 12-sipper chip: screening pressure -2.3 psi, upstream voltage -500, and downstream voltage -3000.</t>
-        </is>
-      </c>
-      <c r="T299" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>CHEMBL1080561</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>1</v>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>Cc1n[nH]c2ccc(-c3nnc(NC[C@@H](N)Cc4cccc(C(F)(F)F)c4)s3)cc12</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>Cc1n[nH]c2ccc(-c3nnc(NC[C@@H](N)Cc4cccc(C(F)(F)F)c4)s3)cc12</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G300" t="n">
-        <v>432.48</v>
-      </c>
-      <c r="H300" t="n">
-        <v>3</v>
-      </c>
-      <c r="I300" t="n">
-        <v>5</v>
-      </c>
-      <c r="J300" t="n">
-        <v>6</v>
-      </c>
-      <c r="K300" t="n">
-        <v>4</v>
-      </c>
-      <c r="L300" t="n">
-        <v>4</v>
-      </c>
-      <c r="M300" t="n">
-        <v>92.51000000000001</v>
-      </c>
-      <c r="N300" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O300" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P300" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q300" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="R300" t="inlineStr">
-        <is>
-          <t>CHEMBL1104218</t>
-        </is>
-      </c>
-      <c r="S300" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 after 10 mins by [gamma33]ATP assay</t>
-        </is>
-      </c>
-      <c r="T300" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>CHEMBL590109</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>1</v>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>NCCn1cc(-c2cc(-c3cc4ccccc4s3)c3[nH]ncc3c2)c2nc(N)ncc21</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>NCCn1cc(-c2cc(-c3cc4ccccc4s3)c3[nH]ncc3c2)c2nc(N)ncc21</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G301" t="n">
-        <v>425.52</v>
-      </c>
-      <c r="H301" t="n">
-        <v>3</v>
-      </c>
-      <c r="I301" t="n">
-        <v>5</v>
-      </c>
-      <c r="J301" t="n">
-        <v>4</v>
-      </c>
-      <c r="K301" t="n">
-        <v>6</v>
-      </c>
-      <c r="L301" t="n">
-        <v>6</v>
-      </c>
-      <c r="M301" t="n">
-        <v>111.43</v>
-      </c>
-      <c r="N301" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O301" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P301" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q301" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R301" t="inlineStr">
-        <is>
-          <t>CHEMBL1072678</t>
-        </is>
-      </c>
-      <c r="S301" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1</t>
-        </is>
-      </c>
-      <c r="T301" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>CHEMBL593813</t>
-        </is>
-      </c>
-      <c r="B302" t="n">
-        <v>1</v>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2c(Cl)[nH]c3ccccc23)cc1-c1cnc2[nH]nc(C)c2n1</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>Cc1occc1-c1nc(N)c(OC[C@@H](N)Cc2c(Cl)[nH]c3ccccc23)cc1-c1cnc2[nH]nc(C)c2n1</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G302" t="n">
-        <v>529</v>
-      </c>
-      <c r="H302" t="n">
-        <v>4</v>
-      </c>
-      <c r="I302" t="n">
-        <v>8</v>
-      </c>
-      <c r="J302" t="n">
-        <v>7</v>
-      </c>
-      <c r="K302" t="n">
-        <v>6</v>
-      </c>
-      <c r="L302" t="n">
-        <v>6</v>
-      </c>
-      <c r="M302" t="n">
-        <v>157.55</v>
-      </c>
-      <c r="N302" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O302" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P302" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q302" t="n">
-        <v>1</v>
-      </c>
-      <c r="R302" t="inlineStr">
-        <is>
-          <t>CHEMBL1072610</t>
-        </is>
-      </c>
-      <c r="S302" t="inlineStr">
-        <is>
-          <t>Inhibition of human AKT1</t>
-        </is>
-      </c>
-      <c r="T302" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>CHEMBL252652</t>
-        </is>
-      </c>
-      <c r="B303" t="n">
-        <v>1</v>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>CCNC(=O)NC1CCN(Cc2ccc(-c3nc4nc(SC)ncc4cc3-c3ccccc3)cc2)CC1</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>CCNC(=O)NC1CCN(Cc2ccc(-c3nc4nc(SC)ncc4cc3-c3ccccc3)cc2)CC1</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G303" t="n">
-        <v>512.6799999999999</v>
-      </c>
-      <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>6</v>
-      </c>
-      <c r="J303" t="n">
-        <v>7</v>
-      </c>
-      <c r="K303" t="n">
-        <v>5</v>
-      </c>
-      <c r="L303" t="n">
-        <v>4</v>
-      </c>
-      <c r="M303" t="n">
-        <v>83.04000000000001</v>
-      </c>
-      <c r="N303" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O303" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P303" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q303" t="n">
-        <v>81</v>
-      </c>
-      <c r="R303" t="inlineStr">
-        <is>
-          <t>CHEMBL928491</t>
-        </is>
-      </c>
-      <c r="S303" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt1</t>
-        </is>
-      </c>
-      <c r="T303" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>CHEMBL411515</t>
-        </is>
-      </c>
-      <c r="B304" t="n">
-        <v>1</v>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>Clc1c[nH]c2ncnc(N3CC4(CCNCC4)c4ccccc43)c12</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>Clc1c[nH]c2ncnc(N3CC4(CCNCC4)c4ccccc43)c12</t>
-        </is>
-      </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G304" t="n">
-        <v>339.83</v>
-      </c>
-      <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>4</v>
-      </c>
-      <c r="J304" t="n">
-        <v>1</v>
-      </c>
-      <c r="K304" t="n">
-        <v>5</v>
-      </c>
-      <c r="L304" t="n">
-        <v>3</v>
-      </c>
-      <c r="M304" t="n">
-        <v>56.84</v>
-      </c>
-      <c r="N304" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O304" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P304" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q304" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="R304" t="inlineStr">
-        <is>
-          <t>CHEMBL936668</t>
-        </is>
-      </c>
-      <c r="S304" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1</t>
-        </is>
-      </c>
-      <c r="T304" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>CHEMBL2063990</t>
-        </is>
-      </c>
-      <c r="B305" t="n">
-        <v>1</v>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>COc1cc(C=C(C(=O)/C=C/c2cccc(OC)c2OC)C(=O)/C=C/c2cccc(OC)c2OC)ccc1O</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>COc1cc(C=C(C(=O)/C=C/c2cccc(OC)c2OC)C(=O)/C=C/c2cccc(OC)c2OC)ccc1O</t>
-        </is>
-      </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G305" t="n">
-        <v>530.5700000000001</v>
-      </c>
-      <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>8</v>
-      </c>
-      <c r="J305" t="n">
-        <v>12</v>
-      </c>
-      <c r="K305" t="n">
-        <v>3</v>
-      </c>
-      <c r="L305" t="n">
-        <v>3</v>
-      </c>
-      <c r="M305" t="n">
-        <v>100.52</v>
-      </c>
-      <c r="N305" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O305" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P305" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q305" t="n">
-        <v>810</v>
-      </c>
-      <c r="R305" t="inlineStr">
-        <is>
-          <t>CHEMBL2067501</t>
-        </is>
-      </c>
-      <c r="S305" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 by AKT1/PKBalpha KinEASE FP fluorescein green assay</t>
-        </is>
-      </c>
-      <c r="T305" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>CHEMBL3218297</t>
-        </is>
-      </c>
-      <c r="B306" t="n">
-        <v>1</v>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>O=C(NCc1cccc(O)c1)Nc1nc(-c2ccncc2)cs1</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>O=C(NCc1cccc(O)c1)Nc1nc(-c2ccncc2)cs1</t>
-        </is>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G306" t="n">
-        <v>326.38</v>
-      </c>
-      <c r="H306" t="n">
-        <v>3</v>
-      </c>
-      <c r="I306" t="n">
-        <v>4</v>
-      </c>
-      <c r="J306" t="n">
-        <v>4</v>
-      </c>
-      <c r="K306" t="n">
-        <v>3</v>
-      </c>
-      <c r="L306" t="n">
-        <v>3</v>
-      </c>
-      <c r="M306" t="n">
-        <v>87.14</v>
-      </c>
-      <c r="N306" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O306" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P306" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q306" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R306" t="inlineStr">
-        <is>
-          <t>CHEMBL3224479</t>
-        </is>
-      </c>
-      <c r="S306" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T306" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>CHEMBL3892575</t>
-        </is>
-      </c>
-      <c r="B307" t="n">
-        <v>1</v>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>Nc1ncnc(N2CCC(c3nc(-c4ccc(F)cc4)cn3CCN3CCCC3)CC2)c1C1CCC1</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>Nc1ncnc(N2CCC(c3nc(-c4ccc(F)cc4)cn3CCN3CCCC3)CC2)c1C1CCC1</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G307" t="n">
-        <v>489.64</v>
-      </c>
-      <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>6</v>
-      </c>
-      <c r="J307" t="n">
-        <v>7</v>
-      </c>
-      <c r="K307" t="n">
-        <v>6</v>
-      </c>
-      <c r="L307" t="n">
-        <v>3</v>
-      </c>
-      <c r="M307" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="N307" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O307" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P307" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q307" t="n">
-        <v>11</v>
-      </c>
-      <c r="R307" t="inlineStr">
-        <is>
-          <t>CHEMBL3887297</t>
-        </is>
-      </c>
-      <c r="S307" t="inlineStr">
-        <is>
-          <t>AKT Enzyme Assay: A TTP Mosquito liquid handling instrument is used to place 125 nl of the appropriate concentration of inhibitor in 100% DMSO (for a dose response curve calculation) into each well of a 384-well plate. To this reaction components are added to a final volume of 12.5 .mu.l: 0.1 ng/.mu.l His-AKT (Full Length), (Invitrogen, Part # P2999, Lot #641228C). 160 uM ATP (Fluka, 02055) 1 mM DTT (Sigma, D0632) 1 mM MgCl2 (Sigma, M1028) 1 .mu.M substrate peptide (sequence FITC-AHA-GRPRTSSFAEG-NH2), synthesized by Tufts Peptide Synthesis service. 100 mM HEPES pH 7.5 (Calbiochem, 391338)0.015% Brij-35 (Sigma, B4184)The reaction is incubated for 90 min at 25 C, and then stopped by the addition of 70 .mu.l of Stop buffer (100 mM HEPES pH 7.5, 0.015% Brij-35, 10 mM EDTA (Sigma, E7889)).The plate is read on a Caliper LC 3000 in an Off-Chip mobility shift assay format, using the following parameters for a 12-sipper chip: screening pressure -2.3 psi, upstream voltage -500, and downstream voltage -3000.</t>
-        </is>
-      </c>
-      <c r="T307" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>CHEMBL2325987</t>
-        </is>
-      </c>
-      <c r="B308" t="n">
-        <v>1</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>CC(NC(=O)C1(N)CCN(c2ncnc3[nH]ccc23)CC1)c1ccc(F)cc1</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>CC(NC(=O)C1(N)CCN(c2ncnc3[nH]ccc23)CC1)c1ccc(F)cc1</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G308" t="n">
-        <v>382.44</v>
-      </c>
-      <c r="H308" t="n">
-        <v>3</v>
-      </c>
-      <c r="I308" t="n">
-        <v>5</v>
-      </c>
-      <c r="J308" t="n">
-        <v>4</v>
-      </c>
-      <c r="K308" t="n">
-        <v>4</v>
-      </c>
-      <c r="L308" t="n">
-        <v>3</v>
-      </c>
-      <c r="M308" t="n">
-        <v>99.93000000000001</v>
-      </c>
-      <c r="N308" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O308" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P308" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q308" t="n">
-        <v>9</v>
-      </c>
-      <c r="R308" t="inlineStr">
-        <is>
-          <t>CHEMBL2330886</t>
-        </is>
-      </c>
-      <c r="S308" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant Akt1 (unknown origin) using 5-FAM-labeled peptide as substrate after 1 hr by caliper off-chip incubation mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T308" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>CHEMBL1258665</t>
-        </is>
-      </c>
-      <c r="B309" t="n">
-        <v>1</v>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>CCc1c[nH]c2ncnc(N3CCN(C(=O)[C@H](N)Cc4ccc(Cl)cc4)CC3)c12</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>CCc1c[nH]c2ncnc(N3CCN(C(=O)[C@H](N)Cc4ccc(Cl)cc4)CC3)c12</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G309" t="n">
-        <v>412.93</v>
-      </c>
-      <c r="H309" t="n">
-        <v>2</v>
-      </c>
-      <c r="I309" t="n">
-        <v>5</v>
-      </c>
-      <c r="J309" t="n">
-        <v>5</v>
-      </c>
-      <c r="K309" t="n">
-        <v>4</v>
-      </c>
-      <c r="L309" t="n">
-        <v>3</v>
-      </c>
-      <c r="M309" t="n">
-        <v>91.14</v>
-      </c>
-      <c r="N309" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O309" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P309" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q309" t="n">
-        <v>2</v>
-      </c>
-      <c r="R309" t="inlineStr">
-        <is>
-          <t>CHEMBL1259574</t>
-        </is>
-      </c>
-      <c r="S309" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 by IMAP assay</t>
-        </is>
-      </c>
-      <c r="T309" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>CHEMBL1097956</t>
-        </is>
-      </c>
-      <c r="B310" t="n">
-        <v>1</v>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>CC[C@H](N)COc1cncc(-c2cc3c(cnc4cc(OC)c(OC)cc43)c(N)n2)c1</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>CC[C@H](N)COc1cncc(-c2cc3c(cnc4cc(OC)c(OC)cc43)c(N)n2)c1</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G310" t="n">
-        <v>419.49</v>
-      </c>
-      <c r="H310" t="n">
-        <v>2</v>
-      </c>
-      <c r="I310" t="n">
-        <v>8</v>
-      </c>
-      <c r="J310" t="n">
-        <v>7</v>
-      </c>
-      <c r="K310" t="n">
-        <v>4</v>
-      </c>
-      <c r="L310" t="n">
-        <v>4</v>
-      </c>
-      <c r="M310" t="n">
-        <v>118.4</v>
-      </c>
-      <c r="N310" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O310" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P310" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q310" t="n">
-        <v>422</v>
-      </c>
-      <c r="R310" t="inlineStr">
-        <is>
-          <t>CHEMBL1103721</t>
-        </is>
-      </c>
-      <c r="S310" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT</t>
-        </is>
-      </c>
-      <c r="T310" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>CHEMBL1760759</t>
-        </is>
-      </c>
-      <c r="B311" t="n">
-        <v>1</v>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>CCOCCN(C[C@@H](O)CN1CCCC2(CCN(c3ncnc4[nH]cc(C)c34)C2)C1)S(=O)(=O)c1c(C)cccc1C</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>CCOCCN(C[C@@H](O)CN1CCCC2(CCN(c3ncnc4[nH]cc(C)c34)C2)C1)S(=O)(=O)c1c(C)cccc1C</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G311" t="n">
-        <v>584.79</v>
-      </c>
-      <c r="H311" t="n">
-        <v>2</v>
-      </c>
-      <c r="I311" t="n">
-        <v>8</v>
-      </c>
-      <c r="J311" t="n">
-        <v>11</v>
-      </c>
-      <c r="K311" t="n">
-        <v>5</v>
-      </c>
-      <c r="L311" t="n">
-        <v>3</v>
-      </c>
-      <c r="M311" t="n">
-        <v>114.89</v>
-      </c>
-      <c r="N311" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O311" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P311" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q311" t="n">
-        <v>2</v>
-      </c>
-      <c r="R311" t="inlineStr">
-        <is>
-          <t>CHEMBL1763788</t>
-        </is>
-      </c>
-      <c r="S311" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt1</t>
-        </is>
-      </c>
-      <c r="T311" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>CHEMBL470620</t>
-        </is>
-      </c>
-      <c r="B312" t="n">
-        <v>1</v>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>CN(C)CC(NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>CN(C)CC(NC(=O)c1cc(Br)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
-        </is>
-      </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G312" t="n">
-        <v>469.41</v>
-      </c>
-      <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="n">
-        <v>3</v>
-      </c>
-      <c r="J312" t="n">
-        <v>6</v>
-      </c>
-      <c r="K312" t="n">
-        <v>4</v>
-      </c>
-      <c r="L312" t="n">
-        <v>4</v>
-      </c>
-      <c r="M312" t="n">
-        <v>61.02</v>
-      </c>
-      <c r="N312" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O312" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P312" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q312" t="n">
-        <v>20</v>
-      </c>
-      <c r="R312" t="inlineStr">
-        <is>
-          <t>CHEMBL959242</t>
-        </is>
-      </c>
-      <c r="S312" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1</t>
-        </is>
-      </c>
-      <c r="T312" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>CHEMBL3113130</t>
-        </is>
-      </c>
-      <c r="B313" t="n">
-        <v>1</v>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>Clc1ccc(C(NC2CC2)c2ccc(-c3ncnc4[nH]cnc34)cc2)cc1</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>Clc1ccc(C(NC2CC2)c2ccc(-c3ncnc4[nH]cnc34)cc2)cc1</t>
-        </is>
-      </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G313" t="n">
-        <v>375.86</v>
-      </c>
-      <c r="H313" t="n">
-        <v>2</v>
-      </c>
-      <c r="I313" t="n">
-        <v>4</v>
-      </c>
-      <c r="J313" t="n">
-        <v>5</v>
-      </c>
-      <c r="K313" t="n">
-        <v>5</v>
-      </c>
-      <c r="L313" t="n">
-        <v>4</v>
-      </c>
-      <c r="M313" t="n">
-        <v>66.48999999999999</v>
-      </c>
-      <c r="N313" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O313" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P313" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q313" t="n">
-        <v>470</v>
-      </c>
-      <c r="R313" t="inlineStr">
-        <is>
-          <t>CHEMBL3118849</t>
-        </is>
-      </c>
-      <c r="S313" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt1 (unknown origin) using ATP/eNOS as substrate preincubated for 5 mins followed by substrate addition measured after 30 mins by fluorescence polarization assay</t>
-        </is>
-      </c>
-      <c r="T313" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>CHEMBL1098939</t>
-        </is>
-      </c>
-      <c r="B314" t="n">
-        <v>1</v>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@@H](N)Cc3ccccc3)cc21</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(OC[C@@H](N)Cc3ccccc3)cc21</t>
-        </is>
-      </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G314" t="n">
-        <v>461.53</v>
-      </c>
-      <c r="H314" t="n">
-        <v>3</v>
-      </c>
-      <c r="I314" t="n">
-        <v>9</v>
-      </c>
-      <c r="J314" t="n">
-        <v>7</v>
-      </c>
-      <c r="K314" t="n">
-        <v>4</v>
-      </c>
-      <c r="L314" t="n">
-        <v>4</v>
-      </c>
-      <c r="M314" t="n">
-        <v>151.13</v>
-      </c>
-      <c r="N314" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O314" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P314" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q314" t="n">
-        <v>3</v>
-      </c>
-      <c r="R314" t="inlineStr">
-        <is>
-          <t>CHEMBL1109952</t>
-        </is>
-      </c>
-      <c r="S314" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT</t>
-        </is>
-      </c>
-      <c r="T314" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>CHEMBL4062453</t>
-        </is>
-      </c>
-      <c r="B315" t="n">
-        <v>1</v>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>CN(C)CCn1cc(-c2ccn3c(-c4ccc(C(N)=O)c(OCc5cccc(F)c5)c4)cnc3c2)cn1</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>CN(C)CCn1cc(-c2ccn3c(-c4ccc(C(N)=O)c(OCc5cccc(F)c5)c4)cnc3c2)cn1</t>
-        </is>
-      </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G315" t="n">
-        <v>498.56</v>
-      </c>
-      <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>5</v>
-      </c>
-      <c r="J315" t="n">
-        <v>9</v>
-      </c>
-      <c r="K315" t="n">
-        <v>5</v>
-      </c>
-      <c r="L315" t="n">
-        <v>5</v>
-      </c>
-      <c r="M315" t="n">
-        <v>90.68000000000001</v>
-      </c>
-      <c r="N315" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O315" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P315" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q315" t="n">
-        <v>608</v>
-      </c>
-      <c r="R315" t="inlineStr">
-        <is>
-          <t>CHEMBL4003700</t>
-        </is>
-      </c>
-      <c r="S315" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T315" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>CHEMBL3684439</t>
-        </is>
-      </c>
-      <c r="B316" t="n">
-        <v>1</v>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>c1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nnc6n5-c5ccccc5Nc5ccccc5-6)cc4)CC3)[nH]2)nc1</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>c1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nnc6n5-c5ccccc5Nc5ccccc5-6)cc4)CC3)[nH]2)nc1</t>
-        </is>
-      </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G316" t="n">
-        <v>551.66</v>
-      </c>
-      <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="n">
-        <v>7</v>
-      </c>
-      <c r="J316" t="n">
-        <v>5</v>
-      </c>
-      <c r="K316" t="n">
-        <v>8</v>
-      </c>
-      <c r="L316" t="n">
-        <v>7</v>
-      </c>
-      <c r="M316" t="n">
-        <v>100.44</v>
-      </c>
-      <c r="N316" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O316" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P316" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q316" t="n">
-        <v>250</v>
-      </c>
-      <c r="R316" t="inlineStr">
-        <is>
-          <t>CHEMBL3705356</t>
-        </is>
-      </c>
-      <c r="S316" t="inlineStr">
-        <is>
-          <t>Biochemical Assay: Biochemical assay using Akt AlphaScreen (Amplified Luminescent Proximity Homogeneous Assay) technology.</t>
-        </is>
-      </c>
-      <c r="T316" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>CHEMBL3649670</t>
-        </is>
-      </c>
-      <c r="B317" t="n">
-        <v>1</v>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>Cn1cc(-c2nc3ccc(-c4ccccc4)nc3n2-c2ccc(C3(N)CCC3)cc2)c(N)n1</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>Cn1cc(-c2nc3ccc(-c4ccccc4)nc3n2-c2ccc(C3(N)CCC3)cc2)c(N)n1</t>
-        </is>
-      </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G317" t="n">
-        <v>435.54</v>
-      </c>
-      <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="n">
-        <v>5</v>
-      </c>
-      <c r="J317" t="n">
-        <v>4</v>
-      </c>
-      <c r="K317" t="n">
-        <v>6</v>
-      </c>
-      <c r="L317" t="n">
-        <v>5</v>
-      </c>
-      <c r="M317" t="n">
-        <v>100.57</v>
-      </c>
-      <c r="N317" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O317" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P317" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q317" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="R317" t="inlineStr">
-        <is>
-          <t>CHEMBL3706066</t>
-        </is>
-      </c>
-      <c r="S317" t="inlineStr">
-        <is>
-          <t>Alpha Screen Assay: AKT1 activity was assayed using the GSK3-derived biotinylated peptide substrate, crosstide (biotin-GRPRTSSFAEG), and AlphaScreen (Amplified Luminescent Proximity Homogeneous Assay) technology. AKT1 activation was achieved by the addition of the activating kinases PDK1 and MAPKAPK2, lipid vesicles, and ATP. The extent of peptide phosphorylation was determined using a phospho-AKT substrate antibody and acceptor beads conjugated to Protein A and donor beads conjugated to streptavidin that bind to the biotin on the peptide. Excitation of the donor beads converted ambient oxygen to excited singlet oxygen which, when in close proximity to acceptor beads, reacted with acceptor beads resulting in signal amplification.</t>
-        </is>
-      </c>
-      <c r="T317" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>CHEMBL1908343</t>
-        </is>
-      </c>
-      <c r="B318" t="n">
-        <v>1</v>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>CC1OC2OC(=O)OC2C2=C1C(=O)c1c(O)cccc1C2=O</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>CC1OC2OC(=O)OC2C2=C1C(=O)c1c(O)cccc1C2=O</t>
-        </is>
-      </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G318" t="n">
-        <v>302.24</v>
-      </c>
-      <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>7</v>
-      </c>
-      <c r="J318" t="n">
-        <v>0</v>
-      </c>
-      <c r="K318" t="n">
-        <v>4</v>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="n">
-        <v>99.13</v>
-      </c>
-      <c r="N318" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O318" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P318" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q318" t="n">
-        <v>313</v>
-      </c>
-      <c r="R318" t="inlineStr">
-        <is>
-          <t>CHEMBL1018804</t>
-        </is>
-      </c>
-      <c r="S318" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT</t>
-        </is>
-      </c>
-      <c r="T318" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>CHEMBL247798</t>
-        </is>
-      </c>
-      <c r="B319" t="n">
-        <v>1</v>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>CCNC(=O)Nc1ccc(CNc2ncsc2C(=O)Nc2ccc3c(c2)OC(F)(F)O3)cn1</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>CCNC(=O)Nc1ccc(CNc2ncsc2C(=O)Nc2ccc3c(c2)OC(F)(F)O3)cn1</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G319" t="n">
-        <v>476.47</v>
-      </c>
-      <c r="H319" t="n">
-        <v>4</v>
-      </c>
-      <c r="I319" t="n">
-        <v>7</v>
-      </c>
-      <c r="J319" t="n">
-        <v>7</v>
-      </c>
-      <c r="K319" t="n">
-        <v>4</v>
-      </c>
-      <c r="L319" t="n">
-        <v>3</v>
-      </c>
-      <c r="M319" t="n">
-        <v>126.5</v>
-      </c>
-      <c r="N319" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O319" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P319" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q319" t="n">
-        <v>81</v>
-      </c>
-      <c r="R319" t="inlineStr">
-        <is>
-          <t>CHEMBL922918</t>
-        </is>
-      </c>
-      <c r="S319" t="inlineStr">
-        <is>
-          <t>Inhibition of pAkt</t>
-        </is>
-      </c>
-      <c r="T319" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>CHEMBL1823640</t>
-        </is>
-      </c>
-      <c r="B320" t="n">
-        <v>1</v>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>O=C(NC(c1ccc(Cl)cc1)C1CCNCC1)c1ccc2cnccc2c1</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>O=C(NC(c1ccc(Cl)cc1)C1CCNCC1)c1ccc2cnccc2c1</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F320" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G320" t="n">
-        <v>379.89</v>
-      </c>
-      <c r="H320" t="n">
-        <v>2</v>
-      </c>
-      <c r="I320" t="n">
-        <v>3</v>
-      </c>
-      <c r="J320" t="n">
-        <v>4</v>
-      </c>
-      <c r="K320" t="n">
-        <v>4</v>
-      </c>
-      <c r="L320" t="n">
-        <v>3</v>
-      </c>
-      <c r="M320" t="n">
-        <v>54.02</v>
-      </c>
-      <c r="N320" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O320" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P320" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q320" t="n">
-        <v>190</v>
-      </c>
-      <c r="R320" t="inlineStr">
-        <is>
-          <t>CHEMBL1825378</t>
-        </is>
-      </c>
-      <c r="S320" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1</t>
-        </is>
-      </c>
-      <c r="T320" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>CHEMBL3896518</t>
-        </is>
-      </c>
-      <c r="B321" t="n">
-        <v>1</v>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>NC(=O)c1ccc(NC2CNCCC2c2ccc(Cl)c(F)c2)c2cncnc12</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>NC(=O)c1ccc(NC2CNCCC2c2ccc(Cl)c(F)c2)c2cncnc12</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F321" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G321" t="n">
-        <v>399.86</v>
-      </c>
-      <c r="H321" t="n">
-        <v>3</v>
-      </c>
-      <c r="I321" t="n">
-        <v>5</v>
-      </c>
-      <c r="J321" t="n">
-        <v>4</v>
-      </c>
-      <c r="K321" t="n">
-        <v>4</v>
-      </c>
-      <c r="L321" t="n">
-        <v>3</v>
-      </c>
-      <c r="M321" t="n">
-        <v>92.93000000000001</v>
-      </c>
-      <c r="N321" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O321" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P321" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q321" t="n">
-        <v>130</v>
-      </c>
-      <c r="R321" t="inlineStr">
-        <is>
-          <t>CHEMBL3887082</t>
-        </is>
-      </c>
-      <c r="S321" t="inlineStr">
-        <is>
-          <t>AKT Enzyme Assay: A TTP Mosquito liquid handling instrument is used to place 125 ul of the appropriate concentration of inhibitor in 100% DMSO (for a dose response curve calculation) into each well of a 384-well plate. To this reaction components are added to a final volume of 12.50 0.1 ng/uL His-AKT (Full Length), (Invitrogen, Part # P2999, Lot #641228C). 160 uM ATP (Fluka, 02055) 1 mM DTT (Sigma, D0632) 1 mM MgCl2 (Sigma, M1028) 1 uM substrate peptide (sequence FITC-AHA-GRPRTSSFAEG-NH2), synthesized by Tufts Peptide Synthesis service. 100 mM HEPES pH 7.5 (Calbiochem, 391338) 0.015% Brij-35 (Sigma, B4184)The reaction is incubated for 90 min at 25° C, and then stopped by the addition of 70 ul of Stop buffer (100 mM HEPES pH 7.5, 0.015% Brij-35, 10 mM EDTA (Sigma, E7889)).The plate is read on a Caliper LC 3000 in an Off-Chip mobility shift assay format, using the following parameters for a 12-sipper chip: screening pressure -2.3 psi, upstream voltage -500, and downstream voltage -3000.</t>
-        </is>
-      </c>
-      <c r="T321" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>CHEMBL4160193</t>
-        </is>
-      </c>
-      <c r="B322" t="n">
-        <v>1</v>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>CCOC(=O)c1c(C)nc(NNC(=O)c2cccc3c(=O)c4ccccc4[nH]c23)nc1-c1ccccc1F</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>CCOC(=O)c1c(C)nc(NNC(=O)c2cccc3c(=O)c4ccccc4[nH]c23)nc1-c1ccccc1F</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G322" t="n">
-        <v>511.51</v>
-      </c>
-      <c r="H322" t="n">
-        <v>3</v>
-      </c>
-      <c r="I322" t="n">
-        <v>7</v>
-      </c>
-      <c r="J322" t="n">
-        <v>6</v>
-      </c>
-      <c r="K322" t="n">
-        <v>5</v>
-      </c>
-      <c r="L322" t="n">
-        <v>5</v>
-      </c>
-      <c r="M322" t="n">
-        <v>126.07</v>
-      </c>
-      <c r="N322" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O322" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P322" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q322" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="R322" t="inlineStr">
-        <is>
-          <t>CHEMBL4133625</t>
-        </is>
-      </c>
-      <c r="S322" t="inlineStr">
-        <is>
-          <t>Inhibition of PH domain lacking AKT1 (unknown origin) using Tamara-labeled GRPRTSSFAEG peptide as substrate after 90 mins by fluorescence polarization IMAP assay</t>
-        </is>
-      </c>
-      <c r="T322" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>CHEMBL3703153</t>
-        </is>
-      </c>
-      <c r="B323" t="n">
-        <v>1</v>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>NC1(c2ccc(-c3nc4nc(OCCN5C(=O)c6ccccc6C5=O)ccn4c3-c3ccccc3)cc2)CCC1</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>NC1(c2ccc(-c3nc4nc(OCCN5C(=O)c6ccccc6C5=O)ccn4c3-c3ccccc3)cc2)CCC1</t>
-        </is>
-      </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G323" t="n">
-        <v>529.6</v>
-      </c>
-      <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>6</v>
-      </c>
-      <c r="J323" t="n">
-        <v>7</v>
-      </c>
-      <c r="K323" t="n">
-        <v>7</v>
-      </c>
-      <c r="L323" t="n">
-        <v>5</v>
-      </c>
-      <c r="M323" t="n">
-        <v>102.82</v>
-      </c>
-      <c r="N323" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O323" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P323" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q323" t="n">
-        <v>548</v>
-      </c>
-      <c r="R323" t="inlineStr">
-        <is>
-          <t>CHEMBL3705510</t>
-        </is>
-      </c>
-      <c r="S323" t="inlineStr">
-        <is>
-          <t>TR-FRET Assay: For the assay 50 nl of a 100 fold concentrated solution of the test compound in DMSO was pipetted into a black low volume 384 well microtiter plate (Greiner Bio-One, Frickenhausen, Germany), 2 ul of a solution of Akt1 in assay buffer [50 mM TRIS/HCl pH 7.5, 5 mM MgCl2, 1 mM dithiothreitol, 0.02% (v/v) Triton X-100 (Sigma)] were added and the mixture was incubated for 15 min at 22 C. to allow prebinding of the test compounds to the enzyme before the start of the kinase reaction. Then the kinase reaction was started by the addition of 3 ul of a solution of adenosine-tri-phosphate (ATP, 16.7 uM=&gt;final conc. in the 5 ul assay volume is 10 uM) and substrate (1.67 uM=&gt;final conc. in the 5 ul assay volume is 1 uM) in assay buffer and the resulting mixture was incubated for a reaction time of 60 min at 22 C. The concentration of Akt1 in the assay was adjusted depending of the activity of the enzyme lot.</t>
-        </is>
-      </c>
-      <c r="T323" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>CHEMBL3693559</t>
-        </is>
-      </c>
-      <c r="B324" t="n">
-        <v>1</v>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>C[C@H]1COCCN1c1nc(N2CCOCC2)nc2nc(-c3ccc(N)nc3)ccc12</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>C[C@H]1COCCN1c1nc(N2CCOCC2)nc2nc(-c3ccc(N)nc3)ccc12</t>
-        </is>
-      </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G324" t="n">
-        <v>407.48</v>
-      </c>
-      <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>9</v>
-      </c>
-      <c r="J324" t="n">
-        <v>3</v>
-      </c>
-      <c r="K324" t="n">
-        <v>5</v>
-      </c>
-      <c r="L324" t="n">
-        <v>3</v>
-      </c>
-      <c r="M324" t="n">
-        <v>102.52</v>
-      </c>
-      <c r="N324" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O324" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P324" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q324" t="n">
-        <v>295.1</v>
-      </c>
-      <c r="R324" t="inlineStr">
-        <is>
-          <t>CHEMBL3705654</t>
-        </is>
-      </c>
-      <c r="S324" t="inlineStr">
-        <is>
-          <t>In Vitro Assay: This assay determines the ability of test compounds to inhibit phosphorylation of Serine 473 in Akt as assessed using Acumen Explorer technology (Acumen Bioscience Limited), a plate reader that can be used to rapidly quantitate features of images generated by laser-scanning.</t>
-        </is>
-      </c>
-      <c r="T324" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>CHEMBL3962884</t>
-        </is>
-      </c>
-      <c r="B325" t="n">
-        <v>1</v>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>C[C@H](n1cnnc1-c1nc(NC(=O)c2cc(-n3cnc(C4CC4)c3)c(N3CCC(F)CC3)cn2)cs1)C(F)(F)F</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>C[C@H](n1cnnc1-c1nc(NC(=O)c2cc(-n3cnc(C4CC4)c3)c(N3CCC(F)CC3)cn2)cs1)C(F)(F)F</t>
-        </is>
-      </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G325" t="n">
-        <v>575.6</v>
-      </c>
-      <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>7</v>
-      </c>
-      <c r="J325" t="n">
-        <v>7</v>
-      </c>
-      <c r="K325" t="n">
-        <v>6</v>
-      </c>
-      <c r="L325" t="n">
-        <v>4</v>
-      </c>
-      <c r="M325" t="n">
-        <v>106.65</v>
-      </c>
-      <c r="N325" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O325" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P325" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q325" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R325" t="inlineStr">
-        <is>
-          <t>CHEMBL3887422</t>
-        </is>
-      </c>
-      <c r="S325" t="inlineStr">
-        <is>
-          <t>Time-Resolved Fluorescence Resonance energy transfer (TR-FRET) Immunoassay: The assay measures the phosphorylation level of a biotinylated peptide substrate by the ASK1 kinase using HTRF detection. This is a competitive, time-resolved fluorescence resonance energy transfer (TR-FRET) immunoassay, based on HTRF KinEASE-STK manual from Cisbio. Test compound, 1 uM STK3 peptide substrate, 4 nM of ASK1 kinase were incubated with 10 mM MOP buffer, pH. 7.0 containing 10 mM Mg-acetate, 0.025% NP-40, 1 mM DTT, 0.05% BSA and 1.5% glycerol for 30 minutes then 100 uM ATP was added to start the kinase reaction and incubated for 3 hr. Peptide antibody labeled with 1xEu3+ Cryptate buffer containing 10 mM EDTA and 125 nM Streptavidin XL665 were added to stop the reaction and phosphorylated peptide substrate was detected using Envision 2103 Multilabeled reader from PerkinElmer. The fluorescence was measured at 615 nm (Cryptate) and 665 nm (XL665) and a ratio of 665 nm/615 nm was calculated for each well.</t>
-        </is>
-      </c>
-      <c r="T325" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>CHEMBL1800390</t>
-        </is>
-      </c>
-      <c r="B326" t="n">
-        <v>1</v>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>CCC[C@H](NC(=O)[C@H](CCCNC(=N)N)NC(=O)CN(CCCCCCN)C(=O)[C@@H](N)CCCNC(=N)N)C(=O)N[C@@H](Cc1ccc(O)cc1)C(=O)N[C@@H](CN)C(=O)N[C@@H](CCC(C)C)C(=O)N(CCCCN)CC(N)=O</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>CCC[C@H](NC(=O)[C@H](CCCNC(=N)N)NC(=O)CN(CCCCCCN)C(=O)[C@@H](N)CCCNC(=N)N)C(=O)N[C@@H](Cc1ccc(O)cc1)C(=O)N[C@@H](CN)C(=O)N[C@@H](CCC(C)C)C(=O)N(CCCCN)CC(N)=O</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G326" t="n">
-        <v>1089.4</v>
-      </c>
-      <c r="H326" t="n">
-        <v>17</v>
-      </c>
-      <c r="I326" t="n">
-        <v>17</v>
-      </c>
-      <c r="J326" t="n">
-        <v>41</v>
-      </c>
-      <c r="K326" t="n">
-        <v>1</v>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="n">
-        <v>477.32</v>
-      </c>
-      <c r="N326" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O326" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P326" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q326" t="n">
-        <v>160</v>
-      </c>
-      <c r="R326" t="inlineStr">
-        <is>
-          <t>CHEMBL1804368</t>
-        </is>
-      </c>
-      <c r="S326" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt using RPRTSSF peptide and [gamma32]ATP by cell-free radioactive assay</t>
-        </is>
-      </c>
-      <c r="T326" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>CHEMBL1940997</t>
-        </is>
-      </c>
-      <c r="B327" t="n">
-        <v>1</v>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>CC(=O)OC[C@H]1O[C@@H](NC(=O)CCCn2[se]c3ccccc3c2=O)[C@H](OC(C)=O)[C@@H](OC(C)=O)[C@@H]1OC(C)=O</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>CC(=O)OC[C@H]1O[C@@H](NC(=O)CCCn2[se]c3ccccc3c2=O)[C@H](OC(C)=O)[C@@H](OC(C)=O)[C@@H]1OC(C)=O</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G327" t="n">
-        <v>613.48</v>
-      </c>
-      <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>11</v>
-      </c>
-      <c r="J327" t="n">
-        <v>10</v>
-      </c>
-      <c r="K327" t="n">
-        <v>3</v>
-      </c>
-      <c r="L327" t="n">
-        <v>2</v>
-      </c>
-      <c r="M327" t="n">
-        <v>165.53</v>
-      </c>
-      <c r="N327" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O327" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P327" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q327" t="n">
-        <v>800</v>
-      </c>
-      <c r="R327" t="inlineStr">
-        <is>
-          <t>CHEMBL1944084</t>
-        </is>
-      </c>
-      <c r="S327" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT-1</t>
-        </is>
-      </c>
-      <c r="T327" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>CHEMBL2012702</t>
-        </is>
-      </c>
-      <c r="B328" t="n">
-        <v>1</v>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>Cc1c(NCCN(C)C)cc(Cl)cc1N1CCN(c2ncnc3[nH]nc(Br)c23)CC1</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>Cc1c(NCCN(C)C)cc(Cl)cc1N1CCN(c2ncnc3[nH]nc(Br)c23)CC1</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G328" t="n">
-        <v>493.84</v>
-      </c>
-      <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="n">
-        <v>7</v>
-      </c>
-      <c r="J328" t="n">
-        <v>6</v>
-      </c>
-      <c r="K328" t="n">
-        <v>4</v>
-      </c>
-      <c r="L328" t="n">
-        <v>3</v>
-      </c>
-      <c r="M328" t="n">
-        <v>76.20999999999999</v>
-      </c>
-      <c r="N328" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O328" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P328" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q328" t="n">
-        <v>53</v>
-      </c>
-      <c r="R328" t="inlineStr">
-        <is>
-          <t>CHEMBL2020583</t>
-        </is>
-      </c>
-      <c r="S328" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 after 3 hrs by luciferase based chemiluminescence assay</t>
-        </is>
-      </c>
-      <c r="T328" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>CHEMBL203673</t>
-        </is>
-      </c>
-      <c r="B329" t="n">
-        <v>1</v>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>N[C@H](COc1cncc(/C=C/c2ccncc2)c1)Cc1ccccc1</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>N[C@H](COc1cncc(/C=C/c2ccncc2)c1)Cc1ccccc1</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F329" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G329" t="n">
-        <v>331.42</v>
-      </c>
-      <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>4</v>
-      </c>
-      <c r="J329" t="n">
-        <v>7</v>
-      </c>
-      <c r="K329" t="n">
-        <v>3</v>
-      </c>
-      <c r="L329" t="n">
-        <v>3</v>
-      </c>
-      <c r="M329" t="n">
-        <v>61.03</v>
-      </c>
-      <c r="N329" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O329" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P329" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q329" t="n">
-        <v>690</v>
-      </c>
-      <c r="R329" t="inlineStr">
-        <is>
-          <t>CHEMBL867719</t>
-        </is>
-      </c>
-      <c r="S329" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt1 using 10 uM ATP</t>
-        </is>
-      </c>
-      <c r="T329" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>CHEMBL2216825</t>
-        </is>
-      </c>
-      <c r="B330" t="n">
-        <v>1</v>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G330" t="n">
-        <v>457.48</v>
-      </c>
-      <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="n">
-        <v>9</v>
-      </c>
-      <c r="J330" t="n">
-        <v>2</v>
-      </c>
-      <c r="K330" t="n">
-        <v>5</v>
-      </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="n">
-        <v>122.6</v>
-      </c>
-      <c r="N330" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O330" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P330" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q330" t="n">
-        <v>149</v>
-      </c>
-      <c r="R330" t="inlineStr">
-        <is>
-          <t>CHEMBL1018804</t>
-        </is>
-      </c>
-      <c r="S330" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT</t>
-        </is>
-      </c>
-      <c r="T330" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>CHEMBL2347053</t>
-        </is>
-      </c>
-      <c r="B331" t="n">
-        <v>1</v>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccccc2/C1=C/c1c[nH]nc1-c1ccccc1[N+](=O)[O-]</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccccc2/C1=C/c1c[nH]nc1-c1ccccc1[N+](=O)[O-]</t>
-        </is>
-      </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G331" t="n">
-        <v>332.32</v>
-      </c>
-      <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="n">
-        <v>4</v>
-      </c>
-      <c r="J331" t="n">
-        <v>3</v>
-      </c>
-      <c r="K331" t="n">
-        <v>4</v>
-      </c>
-      <c r="L331" t="n">
-        <v>3</v>
-      </c>
-      <c r="M331" t="n">
-        <v>100.92</v>
-      </c>
-      <c r="N331" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O331" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P331" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q331" t="n">
-        <v>11</v>
-      </c>
-      <c r="R331" t="inlineStr">
-        <is>
-          <t>CHEMBL2353277</t>
-        </is>
-      </c>
-      <c r="S331" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) after 10 mins by mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T331" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>CHEMBL3298512</t>
-        </is>
-      </c>
-      <c r="B332" t="n">
-        <v>1</v>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>C=CC(=O)[C@H](Cc1ccccc1)NC(=O)OC(C)(C)C</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>C=CC(=O)[C@H](Cc1ccccc1)NC(=O)OC(C)(C)C</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G332" t="n">
-        <v>275.35</v>
-      </c>
-      <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>3</v>
-      </c>
-      <c r="J332" t="n">
-        <v>5</v>
-      </c>
-      <c r="K332" t="n">
-        <v>1</v>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="N332" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O332" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P332" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q332" t="n">
-        <v>580</v>
-      </c>
-      <c r="R332" t="inlineStr">
-        <is>
-          <t>CHEMBL3364070</t>
-        </is>
-      </c>
-      <c r="S332" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) after 1 hr by Z'-LYTE kinase assay in presence of 75 uM ATP</t>
-        </is>
-      </c>
-      <c r="T332" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>CHEMBL374805</t>
-        </is>
-      </c>
-      <c r="B333" t="n">
-        <v>1</v>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>N[C@H](COc1cncc(-c2ccc3[nH]ncc3c2)c1)Cc1c[nH]c2ccccc12</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>N[C@H](COc1cncc(-c2ccc3[nH]ncc3c2)c1)Cc1c[nH]c2ccccc12</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G333" t="n">
-        <v>383.46</v>
-      </c>
-      <c r="H333" t="n">
-        <v>3</v>
-      </c>
-      <c r="I333" t="n">
-        <v>4</v>
-      </c>
-      <c r="J333" t="n">
-        <v>6</v>
-      </c>
-      <c r="K333" t="n">
-        <v>5</v>
-      </c>
-      <c r="L333" t="n">
-        <v>5</v>
-      </c>
-      <c r="M333" t="n">
-        <v>92.61</v>
-      </c>
-      <c r="N333" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O333" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P333" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q333" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R333" t="inlineStr">
-        <is>
-          <t>CHEMBL903964</t>
-        </is>
-      </c>
-      <c r="S333" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt1</t>
-        </is>
-      </c>
-      <c r="T333" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>CHEMBL493911</t>
-        </is>
-      </c>
-      <c r="B334" t="n">
-        <v>1</v>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(OC3CCNCC3)c21</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(OC3CCNCC3)c21</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F334" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G334" t="n">
-        <v>329.36</v>
-      </c>
-      <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="n">
-        <v>8</v>
-      </c>
-      <c r="J334" t="n">
-        <v>4</v>
-      </c>
-      <c r="K334" t="n">
-        <v>4</v>
-      </c>
-      <c r="L334" t="n">
-        <v>3</v>
-      </c>
-      <c r="M334" t="n">
-        <v>116.91</v>
-      </c>
-      <c r="N334" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O334" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P334" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q334" t="n">
-        <v>79</v>
-      </c>
-      <c r="R334" t="inlineStr">
-        <is>
-          <t>CHEMBL1111477</t>
-        </is>
-      </c>
-      <c r="S334" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt1</t>
-        </is>
-      </c>
-      <c r="T334" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>CHEMBL574646</t>
-        </is>
-      </c>
-      <c r="B335" t="n">
-        <v>1</v>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>O=C1/C(=C/c2ccccn2)CNC/C1=C\c1ccccn1</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>O=C1/C(=C/c2ccccn2)CNC/C1=C\c1ccccn1</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G335" t="n">
-        <v>277.33</v>
-      </c>
-      <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>4</v>
-      </c>
-      <c r="J335" t="n">
-        <v>2</v>
-      </c>
-      <c r="K335" t="n">
-        <v>3</v>
-      </c>
-      <c r="L335" t="n">
-        <v>2</v>
-      </c>
-      <c r="M335" t="n">
-        <v>54.88</v>
-      </c>
-      <c r="N335" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O335" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P335" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q335" t="n">
-        <v>20</v>
-      </c>
-      <c r="R335" t="inlineStr">
-        <is>
-          <t>CHEMBL2344124</t>
-        </is>
-      </c>
-      <c r="S335" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant AKT1 (unknown origin) by FRET-based Z'-LYTE assay</t>
-        </is>
-      </c>
-      <c r="T335" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>CHEMBL3414676</t>
-        </is>
-      </c>
-      <c r="B336" t="n">
-        <v>1</v>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>CC(C)CCCC1(C)CC(=O)c2cc(O)ccc2O1</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>CC(C)CCCC1(C)CC(=O)c2cc(O)ccc2O1</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G336" t="n">
-        <v>262.35</v>
-      </c>
-      <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>3</v>
-      </c>
-      <c r="J336" t="n">
-        <v>4</v>
-      </c>
-      <c r="K336" t="n">
-        <v>2</v>
-      </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="n">
-        <v>46.53</v>
-      </c>
-      <c r="N336" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O336" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P336" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q336" t="n">
-        <v>280</v>
-      </c>
-      <c r="R336" t="inlineStr">
-        <is>
-          <t>CHEMBL3419779</t>
-        </is>
-      </c>
-      <c r="S336" t="inlineStr">
-        <is>
-          <t>Binding affinity to GST-tagged PH domain of AKT (unknown origin) by surface Plasmon resonance spectroscopy</t>
-        </is>
-      </c>
-      <c r="T336" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>CHEMBL244695</t>
-        </is>
-      </c>
-      <c r="B337" t="n">
-        <v>1</v>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>O=C(O)c1ccc2c(c1)C1C=CCC1C(C(=O)O)N2</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>O=C(O)c1ccc2c(c1)C1C=CCC1C(C(=O)O)N2</t>
-        </is>
-      </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G337" t="n">
-        <v>259.26</v>
-      </c>
-      <c r="H337" t="n">
-        <v>3</v>
-      </c>
-      <c r="I337" t="n">
-        <v>5</v>
-      </c>
-      <c r="J337" t="n">
-        <v>2</v>
-      </c>
-      <c r="K337" t="n">
-        <v>3</v>
-      </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="n">
-        <v>86.63</v>
-      </c>
-      <c r="N337" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O337" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P337" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q337" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="R337" t="inlineStr">
-        <is>
-          <t>CHEMBL4419259</t>
-        </is>
-      </c>
-      <c r="S337" t="inlineStr">
-        <is>
-          <t>Binding affinity to AKT PH-domain (unknown origin) at 0.01 to 50 uM by SPR spectroscopy</t>
-        </is>
-      </c>
-      <c r="T337" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>CHEMBL1940249</t>
-        </is>
-      </c>
-      <c r="B338" t="n">
-        <v>1</v>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>CC(C)n1cc(C(=O)c2cncc(N[C@@H]3CNC[C@@H]3c3ccc(F)cc3)n2)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>CC(C)n1cc(C(=O)c2cncc(N[C@@H]3CNC[C@@H]3c3ccc(F)cc3)n2)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G338" t="n">
-        <v>460.52</v>
-      </c>
-      <c r="H338" t="n">
-        <v>3</v>
-      </c>
-      <c r="I338" t="n">
-        <v>8</v>
-      </c>
-      <c r="J338" t="n">
-        <v>6</v>
-      </c>
-      <c r="K338" t="n">
-        <v>5</v>
-      </c>
-      <c r="L338" t="n">
-        <v>4</v>
-      </c>
-      <c r="M338" t="n">
-        <v>123.64</v>
-      </c>
-      <c r="N338" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O338" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P338" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q338" t="n">
-        <v>10</v>
-      </c>
-      <c r="R338" t="inlineStr">
-        <is>
-          <t>CHEMBL1942065</t>
-        </is>
-      </c>
-      <c r="S338" t="inlineStr">
-        <is>
-          <t>Inhibition of His-tagged AKT1 using 5FAM-GRPRTSSFAEGCONH2 as substrate by fluorescence based assay</t>
-        </is>
-      </c>
-      <c r="T338" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>CHEMBL4579008</t>
-        </is>
-      </c>
-      <c r="B339" t="n">
-        <v>1</v>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>Cc1ccc(-c2nc(SCC(=O)O)c3c(=O)n(C)c(=O)n(C)c3n2)cc1</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>Cc1ccc(-c2nc(SCC(=O)O)c3c(=O)n(C)c(=O)n(C)c3n2)cc1</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F339" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G339" t="n">
-        <v>372.41</v>
-      </c>
-      <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>7</v>
-      </c>
-      <c r="J339" t="n">
-        <v>4</v>
-      </c>
-      <c r="K339" t="n">
-        <v>3</v>
-      </c>
-      <c r="L339" t="n">
-        <v>3</v>
-      </c>
-      <c r="M339" t="n">
-        <v>107.08</v>
-      </c>
-      <c r="N339" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O339" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P339" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q339" t="n">
-        <v>0.00128</v>
-      </c>
-      <c r="R339" t="inlineStr">
-        <is>
-          <t>CHEMBL4419259</t>
-        </is>
-      </c>
-      <c r="S339" t="inlineStr">
-        <is>
-          <t>Binding affinity to AKT PH-domain (unknown origin) at 0.01 to 50 uM by SPR spectroscopy</t>
-        </is>
-      </c>
-      <c r="T339" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>CHEMBL2219422</t>
-        </is>
-      </c>
-      <c r="B340" t="n">
-        <v>1</v>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>Cn1ncc(Cl)c1-c1cc(C(=O)N[C@H](CN)Cc2cccc(F)c2)sc1Cl</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>Cn1ncc(Cl)c1-c1cc(C(=O)N[C@H](CN)Cc2cccc(F)c2)sc1Cl</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G340" t="n">
-        <v>427.33</v>
-      </c>
-      <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="n">
-        <v>3</v>
-      </c>
-      <c r="J340" t="n">
-        <v>6</v>
-      </c>
-      <c r="K340" t="n">
-        <v>3</v>
-      </c>
-      <c r="L340" t="n">
-        <v>3</v>
-      </c>
-      <c r="M340" t="n">
-        <v>72.94</v>
-      </c>
-      <c r="N340" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O340" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P340" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q340" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R340" t="inlineStr">
-        <is>
-          <t>CHEMBL4307006</t>
-        </is>
-      </c>
-      <c r="S340" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt1 (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T340" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>CHEMBL3314097</t>
-        </is>
-      </c>
-      <c r="B341" t="n">
-        <v>1</v>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>CC[C@H](C)[C@H](NC(=O)[C@H](CCCNC(=N)N)NC(=O)[C@H](CCC(=O)O)NC(=O)[C@H](Cc1cnc[nH]1)NC(=O)[C@H](CCCNC(=N)N)NC(=O)C(CCCCCCCCn1cc(CCCC(=O)NC(CCCCCCCCn2cc(C[C@H](NC(C)=O)C(=O)N[C@@H](Cc3ccccc3)C(=O)N[C@@H](Cc3c[nH]c4ccccc34)C(=O)N[C@@H](Cc3ccccc3)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](CCCNC(=N)N)C(=O)NCC(N)=O)nn2)C(=O)N[C@H](C(=O)N[C@@H](Cc2ccccc2)C(=O)N[C@@H](Cc2ccc(O)cc2)C(=O)N[C@@H](CCCNC(=N)N)C(=O)N[C@@H](CC(C)C)C(=O)NCC(=O)N[C@@H](Cc2ccc(O)cc2)C(=O)NCCNC(=O)CCCC[C@H]2SC[C@H]3NC(=O)N[C@H]32)C(C)C)nn1)NC(C)=O)C(N)=O</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>CC[C@H](C)[C@H](NC(=O)[C@H](CCCNC(=N)N)NC(=O)[C@H](CCC(=O)O)NC(=O)[C@H](Cc1cnc[nH]1)NC(=O)[C@H](CCCNC(=N)N)NC(=O)C(CCCCCCCCn1cc(CCCC(=O)NC(CCCCCCCCn2cc(C[C@H](NC(C)=O)C(=O)N[C@@H](Cc3ccccc3)C(=O)N[C@@H](Cc3c[nH]c4ccccc34)C(=O)N[C@@H](Cc3ccccc3)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](CCCNC(=N)N)C(=O)NCC(N)=O)nn2)C(=O)N[C@H](C(=O)N[C@@H](Cc2ccccc2)C(=O)N[C@@H](Cc2ccc(O)cc2)C(=O)N[C@@H](CCCNC(=N)N)C(=O)N[C@@H](CC(C)C)C(=O)NCC(=O)N[C@@H](Cc2ccc(O)cc2)C(=O)NCCNC(=O)CCCC[C@H]2SC[C@H]3NC(=O)N[C@H]32)C(C)C)nn1)NC(C)=O)C(N)=O</t>
-        </is>
-      </c>
-      <c r="E341" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F341" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G341" t="n">
-        <v>3412.14</v>
-      </c>
-      <c r="H341" t="n">
-        <v>44</v>
-      </c>
-      <c r="I341" t="n">
-        <v>44</v>
-      </c>
-      <c r="J341" t="n">
-        <v>114</v>
-      </c>
-      <c r="K341" t="n">
-        <v>12</v>
-      </c>
-      <c r="L341" t="n">
-        <v>10</v>
-      </c>
-      <c r="M341" t="n">
-        <v>1227.86</v>
-      </c>
-      <c r="N341" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O341" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P341" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q341" t="n">
-        <v>200</v>
-      </c>
-      <c r="R341" t="inlineStr">
-        <is>
-          <t>CHEMBL3364170</t>
-        </is>
-      </c>
-      <c r="S341" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt1 (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T341" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>CHEMBL3900299</t>
-        </is>
-      </c>
-      <c r="B342" t="n">
-        <v>1</v>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCCCCCC(=O)OCC(COP(=O)(O)OC1[C@H](O)[C@H](OP(=O)(O)O)C(OP(=O)(O)O)[C@H](OP(=O)(O)O)[C@H]1O)OC(=O)CCCCCCCCCCCCCCC</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCCCCCC(=O)OCC(COP(=O)(O)OC1[C@H](O)[C@H](OP(=O)(O)O)C(OP(=O)(O)O)[C@H](OP(=O)(O)O)[C@H]1O)OC(=O)CCCCCCCCCCCCCCC</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G342" t="n">
-        <v>1050.98</v>
-      </c>
-      <c r="H342" t="n">
-        <v>9</v>
-      </c>
-      <c r="I342" t="n">
-        <v>22</v>
-      </c>
-      <c r="J342" t="n">
-        <v>42</v>
-      </c>
-      <c r="K342" t="n">
-        <v>1</v>
-      </c>
-      <c r="L342" t="n">
-        <v>0</v>
-      </c>
-      <c r="M342" t="n">
-        <v>349.1</v>
-      </c>
-      <c r="N342" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O342" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P342" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q342" t="n">
-        <v>260</v>
-      </c>
-      <c r="R342" t="inlineStr">
-        <is>
-          <t>CHEMBL3888333</t>
-        </is>
-      </c>
-      <c r="S342" t="inlineStr">
-        <is>
-          <t>SPR Competitive Binding Assay: SPR interaction analyses were performed with a Biacore 2000, using Biacore 2000 Control Software v3.2 and BIAevaluation v4.1 analysis software (Biacore) as described in Mol Cancer Ther 7:2621 (2008). For the competitive binding assays and the Ki determination, PtdIns(3,4,5)phosphate-biotin labeled liposomes (Echelon Biosciences) and SA chips were used with increasing concentrations of the compound tested.</t>
-        </is>
-      </c>
-      <c r="T342" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>CHEMBL608533</t>
-        </is>
-      </c>
-      <c r="B343" t="n">
-        <v>1</v>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>CO[C@@H]1[C@H](N(C)C(=O)c2ccccc2)C[C@H]2O[C@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>CO[C@@H]1[C@H](N(C)C(=O)c2ccccc2)C[C@H]2O[C@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
-        </is>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G343" t="n">
-        <v>570.65</v>
-      </c>
-      <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>4</v>
-      </c>
-      <c r="J343" t="n">
-        <v>3</v>
-      </c>
-      <c r="K343" t="n">
-        <v>9</v>
-      </c>
-      <c r="L343" t="n">
-        <v>6</v>
-      </c>
-      <c r="M343" t="n">
-        <v>77.73</v>
-      </c>
-      <c r="N343" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O343" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P343" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q343" t="n">
-        <v>950</v>
-      </c>
-      <c r="R343" t="inlineStr">
-        <is>
-          <t>CHEMBL1244719</t>
-        </is>
-      </c>
-      <c r="S343" t="inlineStr">
-        <is>
-          <t>Binding affinity to AKT1</t>
-        </is>
-      </c>
-      <c r="T343" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
